--- a/genshin/434478689806944975_2020-09-13_19-59-13.xlsx
+++ b/genshin/434478689806944975_2020-09-13_19-59-13.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:40:53</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11172453704</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3570843161</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-06 19:05:28</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44110.79546296296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>3570841096</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-06 19:03:56</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44110.79439814815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -768,10 +778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-05 23:43:40</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44109.9886574074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>3538694221</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-28 14:49:17</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44102.61755787037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>3538694221</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-28 14:38:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44102.60979166667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -989,10 +993,8 @@
           <t>3538694221</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-28 14:37:57</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44102.6096875</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1068,10 +1070,8 @@
           <t>3538694221</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-28 14:37:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44102.60908564815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1147,10 +1147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-25 15:37:15</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44099.65086805556</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1214,10 +1212,8 @@
           <t>3515490820</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:43:50</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44095.61377314815</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1282,10 +1278,8 @@
           <t>3489665793</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-21 03:10:19</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44095.13216435185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1357,10 +1351,8 @@
           <t>3510521489</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-20 01:16:15</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44094.05295138889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1433,10 +1425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-19 16:06:03</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44093.67086805555</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1500,10 +1490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-19 02:54:34</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44093.12122685185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1579,10 +1567,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-18 08:04:57</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44092.33677083333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1658,10 +1644,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-18 07:46:00</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44092.32361111111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1729,10 +1713,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-18 07:26:14</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44092.30988425926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1808,10 +1790,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-18 01:00:33</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44092.04204861111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1879,10 +1859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-17 20:00:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44091.83381944444</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1950,10 +1928,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-17 19:07:49</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44091.79709490741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2029,10 +2005,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:58:46</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44091.79081018519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2100,10 +2074,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-17 18:57:45</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44091.79010416667</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2171,10 +2143,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-17 16:51:18</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44091.70229166667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2238,10 +2208,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-17 09:01:34</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44091.37608796296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2317,10 +2285,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:57:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44091.37325231481</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2388,10 +2354,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:55:58</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44091.37219907407</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2459,10 +2423,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:11:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44091.34155092593</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2538,10 +2500,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-17 08:10:38</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44091.34071759259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2617,10 +2577,8 @@
           <t>3489310743</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-17 02:02:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44091.08487268518</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2684,10 +2642,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-16 18:34:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44090.77398148148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2755,10 +2711,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-16 12:12:10</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44090.50844907408</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2834,10 +2788,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-16 11:49:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44090.49290509259</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2905,10 +2857,8 @@
           <t>3490010079</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-16 11:48:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44090.491875</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2976,10 +2926,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-16 11:47:17</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44090.49116898148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3047,10 +2995,8 @@
           <t>3497265538</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-16 10:43:42</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44090.44701388889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3122,10 +3068,8 @@
           <t>3496684418</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-16 01:43:30</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44090.071875</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3201,10 +3145,8 @@
           <t>3496684296</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-16 01:43:16</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44090.07171296296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3280,10 +3222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:27:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44089.89380787037</v>
       </c>
       <c r="I39" t="n">
         <v>6</v>
@@ -3347,10 +3287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-15 21:02:16</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44089.87657407407</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
@@ -3410,10 +3348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-15 20:54:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44089.87083333333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3481,10 +3417,8 @@
           <t>3489665793</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-15 20:00:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44089.83363425926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3548,10 +3482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-15 18:02:42</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44089.751875</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3619,10 +3551,8 @@
           <t>3494829126</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-15 16:20:29</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44089.6808912037</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3694,10 +3624,8 @@
           <t>3494082585</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-15 11:25:59</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44089.47637731482</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3774,10 +3702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-15 08:22:51</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44089.34920138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3849,10 +3775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-15 03:26:06</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44089.143125</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3920,10 +3844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-15 01:26:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44089.06038194444</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3991,10 +3913,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:39:16</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44089.02726851852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4066,10 +3986,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-15 00:37:31</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44089.02605324074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4145,10 +4063,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-14 23:26:40</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44088.97685185185</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4212,10 +4128,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:37:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44088.94246527777</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4279,10 +4193,8 @@
           <t>3489429131</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-14 22:19:49</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44088.93042824074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4358,10 +4270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-14 21:32:47</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44088.89776620371</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4429,10 +4339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-14 20:49:31</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44088.86771990741</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4508,10 +4416,8 @@
           <t>3492184895</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:27:05</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44088.81047453704</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4579,10 +4485,8 @@
           <t>3492156102</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:18:27</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44088.80447916667</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4646,10 +4550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-14 19:12:29</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44088.80033564815</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4717,10 +4619,8 @@
           <t>3491050227</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:46:21</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44088.7821875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4798,10 +4698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:10:34</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44088.75733796296</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4866,10 +4764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-14 18:00:27</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44088.7503125</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4945,10 +4841,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:59:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44088.74983796296</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5024,10 +4918,8 @@
           <t>3491873701</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:59:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44088.74943287037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5095,10 +4987,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:57:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44088.7484837963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5166,10 +5056,8 @@
           <t>3491871694</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:57:13</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44088.74806712963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5240,10 +5128,8 @@
           <t>3490424277</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:32:29</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44088.68922453704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5315,10 +5201,8 @@
           <t>3491595263</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-14 16:07:22</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44088.67178240741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5390,10 +5274,8 @@
           <t>3491536413</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:41:53</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44088.65408564815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5457,10 +5339,8 @@
           <t>3491399986</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:28:28</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44088.64476851852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5536,10 +5416,8 @@
           <t>3489051711</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-14 15:03:35</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44088.62748842593</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5615,10 +5493,8 @@
           <t>3490982893</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:45:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44088.61471064815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5686,10 +5562,8 @@
           <t>3491404401</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:42:37</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44088.61292824074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5765,10 +5639,8 @@
           <t>3491399986</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:42:06</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44088.61256944444</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5844,10 +5716,8 @@
           <t>3491382345</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:31:16</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44088.6050462963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5915,10 +5785,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-14 14:03:03</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44088.58545138889</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5982,10 +5850,8 @@
           <t>3491311761</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:56:28</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44088.58087962963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6045,10 +5911,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:38:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44088.56857638889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6116,10 +5980,8 @@
           <t>3491184061</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:06:50</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44088.54641203704</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6191,10 +6053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-14 13:01:15</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44088.54253472222</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6262,10 +6122,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:57:18</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44088.53979166667</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6333,10 +6191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:52:22</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44088.53636574074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6412,10 +6268,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:51:28</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44088.53574074074</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6483,10 +6337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:50:51</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44088.5353125</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6554,10 +6406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:47:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44088.53328703704</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6633,10 +6483,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:46:40</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44088.53240740741</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6700,10 +6548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:44:44</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44088.53106481482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6767,10 +6613,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:42:23</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44088.52943287037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6842,10 +6686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:35:11</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44088.52443287037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6913,10 +6755,8 @@
           <t>3489984318</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:35:04</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44088.52435185185</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6976,10 +6816,8 @@
           <t>3491056290</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:27:48</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44088.51930555556</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7051,10 +6889,8 @@
           <t>3491050227</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:26:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44088.51846064815</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7126,10 +6962,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:23:44</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44088.51648148148</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7201,10 +7035,8 @@
           <t>3491040521</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:22:30</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44088.515625</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7280,10 +7112,8 @@
           <t>3489310743</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:22:04</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44088.51532407408</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7359,10 +7189,8 @@
           <t>3490982893</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:19:24</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44088.51347222222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7430,10 +7258,8 @@
           <t>3491011924</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:14:16</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44088.50990740741</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7502,10 +7328,8 @@
           <t>3490424277</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:12:43</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44088.50883101852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7584,10 +7408,8 @@
           <t>3490983946</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:06:10</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44088.5042824074</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7663,10 +7485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:05:39</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44088.50392361111</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7742,10 +7562,8 @@
           <t>3490982893</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:05:06</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44088.50354166667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7813,10 +7631,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-14 12:01:07</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44088.50077546296</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7884,10 +7700,8 @@
           <t>3490848151</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:58:32</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44088.49898148148</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7955,10 +7769,8 @@
           <t>3489203925</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:57:19</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44088.49813657408</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8022,10 +7834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:56:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44088.49789351852</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8089,10 +7899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:35:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44088.48283564814</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8164,10 +7972,8 @@
           <t>3490832960</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:33:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44088.48174768518</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8239,10 +8045,8 @@
           <t>3490708851</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:32:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44088.48097222222</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8314,10 +8118,8 @@
           <t>3490905254</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:32:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44088.48061342593</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8389,10 +8191,8 @@
           <t>3490641440</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:32:02</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44088.4805787037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8464,10 +8264,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:31:24</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44088.48013888889</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8539,10 +8337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:29:15</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44088.47864583333</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8618,10 +8414,8 @@
           <t>3490886590</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:25:53</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44088.47630787037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8697,10 +8491,8 @@
           <t>3490877640</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:21:48</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44088.47347222222</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8776,10 +8568,8 @@
           <t>3490424277</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:21:13</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44088.47306712963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8851,10 +8641,8 @@
           <t>3489899547</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:20:29</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44088.47255787037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8922,10 +8710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:14:52</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44088.46865740741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8989,10 +8775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:11:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44088.4666087963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9068,10 +8852,8 @@
           <t>3490848151</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:08:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44088.4643287037</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9149,10 +8931,8 @@
           <t>3489194378</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:05:55</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44088.46244212963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9230,10 +9010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:03:36</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44088.46083333333</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9301,10 +9079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:02:52</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44088.46032407408</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9372,10 +9148,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:02:18</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44088.45993055555</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9447,10 +9221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:02:11</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44088.45984953704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9518,10 +9290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:01:38</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44088.45946759259</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9593,10 +9363,8 @@
           <t>3490832960</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:01:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44088.45938657408</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9660,10 +9428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-14 11:01:18</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44088.45923611111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9735,10 +9501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:57:40</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44088.45671296296</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9806,10 +9570,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:56:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44088.45613425926</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9877,10 +9639,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:54:47</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44088.45471064815</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9957,10 +9717,8 @@
           <t>3490822505</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:54:37</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44088.45459490741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10033,10 +9791,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:46:29</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44088.44894675926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10100,10 +9856,8 @@
           <t>3490793335</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:41:39</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44088.44559027778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10175,10 +9929,8 @@
           <t>3490787648</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:40:00</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44088.44444444445</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10250,10 +10002,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:22:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44088.43197916666</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10330,10 +10080,8 @@
           <t>3489983372</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:19:14</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44088.43002314815</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10397,10 +10145,8 @@
           <t>3490750191</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:18:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44088.42923611111</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10468,10 +10214,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:17:16</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44088.42865740741</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10535,10 +10279,8 @@
           <t>3490010079</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:16:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44088.42831018518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10602,10 +10344,8 @@
           <t>3489037790</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:10:58</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44088.42428240741</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10673,10 +10413,8 @@
           <t>3490714023</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:05:13</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44088.42028935185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10754,10 +10492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:04:22</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44088.41969907407</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10833,10 +10569,8 @@
           <t>3489118605</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:01:10</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44088.41747685185</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10908,10 +10642,8 @@
           <t>3490708851</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:01:10</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44088.41747685185</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10987,10 +10719,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-14 10:00:11</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44088.41679398148</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11067,10 +10797,8 @@
           <t>3490706278</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:57:00</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44088.41458333333</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11147,10 +10875,8 @@
           <t>3490641440</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:53:38</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44088.41224537037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11222,10 +10948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:52:41</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44088.41158564815</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11297,10 +11021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:44:43</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44088.40605324074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11368,10 +11090,8 @@
           <t>3490676783</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:41:36</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44088.40388888889</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11447,10 +11167,8 @@
           <t>3490675994</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:40:18</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44088.40298611111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11526,10 +11244,8 @@
           <t>3490664320</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:37:24</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44088.40097222223</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11605,10 +11321,8 @@
           <t>3490654572</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:35:20</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44088.39953703704</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11680,10 +11394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:28:35</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44088.39484953704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11747,10 +11459,8 @@
           <t>3490637189</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:23:41</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44088.39144675926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11814,10 +11524,8 @@
           <t>3490641440</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:23:36</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44088.39138888889</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11889,10 +11597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:20:42</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44088.389375</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11964,10 +11670,8 @@
           <t>3490619822</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:16:26</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44088.38641203703</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12043,10 +11747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:14:20</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44088.3849537037</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12106,10 +11808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:13:19</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44088.38424768519</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12173,10 +11873,8 @@
           <t>3490619822</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:12:28</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44088.38365740741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12240,10 +11938,8 @@
           <t>3490598336</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:01:09</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44088.37579861111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12319,10 +12015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:01:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44088.37577546296</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12394,10 +12088,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-14 09:01:01</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44088.37570601852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12465,10 +12157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:57:39</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44088.37336805555</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12536,10 +12226,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:56:44</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44088.37273148148</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12607,10 +12295,8 @@
           <t>3490589426</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:54:38</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44088.37127314815</v>
       </c>
       <c r="I166" t="n">
         <v>4</v>
@@ -12682,10 +12368,8 @@
           <t>3490590397</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:53:51</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44088.37072916667</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12757,10 +12441,8 @@
           <t>3490118388</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:53:16</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44088.37032407407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12828,10 +12510,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:51:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44088.36935185185</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12899,10 +12579,8 @@
           <t>3490010079</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:51:17</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44088.36894675926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12970,10 +12648,8 @@
           <t>3489792996</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:45:14</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44088.36474537037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13049,10 +12725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:24:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44088.3503125</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13128,10 +12802,8 @@
           <t>3490468345</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:13:59</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44088.34304398148</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13207,10 +12879,8 @@
           <t>3490519718</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:13:15</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44088.34253472222</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13286,10 +12956,8 @@
           <t>3490468345</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:11:11</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44088.34109953704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13365,10 +13033,8 @@
           <t>3490518424</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:10:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44088.34075231481</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13444,10 +13110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:05:58</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44088.33747685186</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13507,10 +13171,8 @@
           <t>3490515770</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-14 08:04:59</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44088.33679398148</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13578,10 +13240,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:54:45</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44088.3296875</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13657,10 +13317,8 @@
           <t>3490468345</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:36:50</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44088.31724537037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13728,10 +13386,8 @@
           <t>3490468345</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:31:39</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44088.31364583333</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13807,10 +13463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:24:23</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44088.30859953703</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13886,10 +13540,8 @@
           <t>3490456308</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:18:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44088.30460648148</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13961,10 +13613,8 @@
           <t>3489087876</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:14:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44088.30157407407</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14032,10 +13682,8 @@
           <t>3489429131</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-14 07:03:26</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44088.29405092593</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14111,10 +13759,8 @@
           <t>3490424277</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:52:03</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44088.28614583334</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14193,10 +13839,8 @@
           <t>3489792996</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:44:58</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44088.28122685185</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14268,10 +13912,8 @@
           <t>3490421557</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:42:56</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44088.27981481481</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14339,10 +13981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:42:14</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44088.27932870371</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14410,10 +14050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-14 06:20:47</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44088.26443287037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14489,10 +14127,8 @@
           <t>3489925644</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-14 05:52:03</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44088.24447916666</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14556,10 +14192,8 @@
           <t>3489429131</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-14 05:16:52</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44088.22004629629</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14635,10 +14269,8 @@
           <t>3490375600</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-14 05:09:48</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44088.21513888889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14710,10 +14342,8 @@
           <t>3490375507</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-14 05:08:57</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44088.21454861111</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14785,10 +14415,8 @@
           <t>3490373390</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-14 05:08:12</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44088.21402777778</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14860,10 +14488,8 @@
           <t>3489069793</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-14 04:13:03</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44088.17572916667</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14939,10 +14565,8 @@
           <t>3489899547</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-14 02:54:20</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44088.12106481481</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15010,10 +14634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-14 02:07:14</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44088.08835648148</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15082,10 +14704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:57:15</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44088.08142361111</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15153,10 +14773,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:34:53</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44088.0658912037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15220,10 +14838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:32:50</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44088.06446759259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15287,10 +14903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:24:16</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44088.05851851852</v>
       </c>
       <c r="I202" t="n">
         <v>13</v>
@@ -15358,10 +14972,8 @@
           <t>3490197759</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:23:57</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44088.05829861111</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15429,10 +15041,8 @@
           <t>3490200945</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:21:49</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44088.05681712963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15496,10 +15106,8 @@
           <t>3490195032</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:18:53</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44088.05478009259</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15559,10 +15167,8 @@
           <t>3489037790</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:13:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44088.05069444444</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15630,10 +15236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:08:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44088.04747685185</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15709,10 +15313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:04:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44088.04496527778</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15788,10 +15390,8 @@
           <t>3490166092</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-14 01:04:45</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44088.04496527778</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -15860,10 +15460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:57:46</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44088.04011574074</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15931,10 +15529,8 @@
           <t>3490142401</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:54:32</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44088.03787037037</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16006,10 +15602,8 @@
           <t>3490137954</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:53:05</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44088.03686342593</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -16081,10 +15675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:52:33</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44088.03649305556</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16160,10 +15752,8 @@
           <t>3490137472</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:52:27</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44088.03642361111</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16227,10 +15817,8 @@
           <t>3490118388</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:44:37</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44088.0309837963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16306,10 +15894,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:43:43</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44088.0303587963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16373,10 +15959,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:43:05</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44088.02991898148</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16448,10 +16032,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:43:01</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44088.02987268518</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16523,10 +16105,8 @@
           <t>3489037790</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:42:26</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44088.02946759259</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16594,10 +16174,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:41:05</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44088.02853009259</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16673,10 +16251,8 @@
           <t>3489464017</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:37:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44088.02599537037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16740,10 +16316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:32:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44088.02267361111</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16816,10 +16390,8 @@
           <t>3490071330</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:25:58</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44088.01803240741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16891,10 +16463,8 @@
           <t>3490070930</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:25:34</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44088.01775462963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16962,10 +16532,8 @@
           <t>3490063871</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:24:33</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44088.01704861111</v>
       </c>
       <c r="I225" t="n">
         <v>17</v>
@@ -17029,10 +16597,8 @@
           <t>3490021668</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:20:25</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44088.01417824074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17110,10 +16676,8 @@
           <t>3489983372</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:20:17</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44088.01408564814</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17185,10 +16749,8 @@
           <t>3490051149</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:19:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44088.01364583334</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17256,10 +16818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:19:04</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44088.01324074074</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17327,10 +16887,8 @@
           <t>3489912243</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:13:35</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44088.00943287037</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17394,10 +16952,8 @@
           <t>3490032400</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:12:51</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44088.00892361111</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17465,10 +17021,8 @@
           <t>3489031789</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:12:36</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44088.00875</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17532,10 +17086,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:11:48</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44088.00819444445</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17599,10 +17151,8 @@
           <t>3489203925</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:11:17</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44088.00783564815</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17666,10 +17216,8 @@
           <t>3490021668</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:10:25</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44088.0072337963</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17733,10 +17281,8 @@
           <t>3489118605</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:09:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44088.00668981481</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17800,10 +17346,8 @@
           <t>3490017893</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:08:37</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44088.0059837963</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17867,10 +17411,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:08:37</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44088.0059837963</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17942,10 +17484,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:08:02</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44088.00557870371</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18017,10 +17557,8 @@
           <t>3490006838</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:06:04</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44088.00421296297</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18084,10 +17622,8 @@
           <t>3490004949</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:05:56</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44088.00412037037</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18151,10 +17687,8 @@
           <t>3490010079</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:05:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44088.00383101852</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18218,10 +17752,8 @@
           <t>3490005236</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:04:39</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44088.00322916666</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18289,10 +17821,8 @@
           <t>3489925644</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:04:04</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44088.00282407407</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18360,10 +17890,8 @@
           <t>3489912243</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:03:46</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44088.00261574074</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18439,10 +17967,8 @@
           <t>3489993869</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:03:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44088.00239583333</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18506,10 +18032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:02:32</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44088.00175925926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18577,10 +18101,8 @@
           <t>3489989931</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:01:32</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44088.00106481482</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18644,10 +18166,8 @@
           <t>3489912243</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:01:20</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44088.00092592592</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18711,10 +18231,8 @@
           <t>3489984318</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-14 00:00:26</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44088.00030092592</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18778,10 +18296,8 @@
           <t>3489983372</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:59:37</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44087.9997337963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18845,10 +18361,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:59:34</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44087.99969907408</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18916,10 +18430,8 @@
           <t>3489310743</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:59:24</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44087.99958333333</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18983,10 +18495,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:55:07</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44087.9966087963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19065,10 +18575,8 @@
           <t>3489970304</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:53:36</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44087.99555555556</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19136,10 +18644,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:52:34</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44087.99483796296</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19203,10 +18709,8 @@
           <t>3489792996</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:52:29</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44087.99478009259</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19278,10 +18782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:49:33</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44087.99274305555</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19341,10 +18843,8 @@
           <t>3489944268</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:48:49</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44087.9922337963</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19416,10 +18916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:47:20</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44087.99120370371</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19491,10 +18989,8 @@
           <t>3489942267</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:47:15</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44087.99114583333</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19567,10 +19063,8 @@
           <t>3489925644</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:45:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44087.98995370371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19635,10 +19129,8 @@
           <t>3489792996</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:43:43</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44087.98869212963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19710,10 +19202,8 @@
           <t>3489925644</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:42:07</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44087.98758101852</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19781,10 +19271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:41:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44087.98739583333</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19852,10 +19340,8 @@
           <t>3489912243</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:41:43</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44087.98730324074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19919,10 +19405,8 @@
           <t>3489912243</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:39:26</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44087.98571759259</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19998,10 +19482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:38:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44087.98517361111</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20065,10 +19547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:38:29</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44087.98505787037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20132,10 +19612,8 @@
           <t>3489899547</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:37:18</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44087.98423611111</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20203,10 +19681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:37:03</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44087.9840625</v>
       </c>
       <c r="I271" t="n">
         <v>18</v>
@@ -20275,10 +19751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:36:43</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44087.98383101852</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20342,10 +19816,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:32:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44087.98090277778</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20409,10 +19881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:31:59</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44087.98054398148</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20488,10 +19958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:28:36</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44087.97819444445</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20563,10 +20031,8 @@
           <t>3489868107</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:28:32</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44087.97814814815</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20630,10 +20096,8 @@
           <t>3489858273</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:27:06</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44087.97715277778</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20693,10 +20157,8 @@
           <t>3489854776</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:26:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44087.97641203704</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20756,10 +20218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:22:28</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44087.97393518518</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20835,10 +20295,8 @@
           <t>3489363575</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:20:15</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44087.97239583333</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20902,10 +20360,8 @@
           <t>3489828813</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:20:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44087.97222222222</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20981,10 +20437,8 @@
           <t>3489521264</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:14:22</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44087.96831018518</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21052,10 +20506,8 @@
           <t>3489521264</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:14:04</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44087.96810185185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21123,10 +20575,8 @@
           <t>3489521264</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:13:40</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44087.96782407408</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21194,10 +20644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:12:42</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44087.96715277778</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21261,10 +20709,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:12:17</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44087.96686342593</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21340,10 +20786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:12:06</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44087.96673611111</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21427,10 +20871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:11:16</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44087.96615740741</v>
       </c>
       <c r="I288" t="n">
         <v>52</v>
@@ -21498,10 +20940,8 @@
           <t>3489054032</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:10:51</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44087.96586805556</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21577,10 +21017,8 @@
           <t>3489792996</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:10:22</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44087.9655324074</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21652,10 +21090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:10:12</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44087.96541666667</v>
       </c>
       <c r="I291" t="n">
         <v>5</v>
@@ -21727,10 +21163,8 @@
           <t>3489790694</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:08:45</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44087.96440972222</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21798,10 +21232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-13 23:06:59</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44087.96318287037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21865,10 +21297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:59:24</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44087.95791666667</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -21940,10 +21370,8 @@
           <t>3489709754</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:58:43</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44087.95744212963</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22007,10 +21435,8 @@
           <t>3489737977</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:56:53</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44087.95616898148</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22082,10 +21508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:54:01</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44087.95417824074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22161,10 +21585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:53:53</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44087.95408564815</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22228,10 +21650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:53:51</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44087.9540625</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22299,10 +21719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:53:41</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44087.95394675926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22381,10 +21799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:53:02</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44087.95349537037</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22448,10 +21864,8 @@
           <t>3489720094</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:52:24</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44087.95305555555</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22527,10 +21941,8 @@
           <t>3489720094</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:51:00</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44087.95208333333</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22600,10 +22012,8 @@
           <t>3489709754</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:50:46</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44087.9519212963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22667,10 +22077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:50:23</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44087.95165509259</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22738,10 +22146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:50:22</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44087.95164351852</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22814,10 +22220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:47:07</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44087.94938657407</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22885,10 +22289,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:46:46</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44087.94914351852</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22956,10 +22358,8 @@
           <t>3489689178</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:46:41</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44087.94908564815</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23027,10 +22427,8 @@
           <t>3489697868</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:46:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44087.9490162037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23102,10 +22500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:45:57</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44087.94857638889</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23181,10 +22577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:45:50</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44087.94849537037</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23260,10 +22654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:44:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44087.94728009259</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23327,10 +22719,8 @@
           <t>3489681068</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:41:53</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44087.94575231482</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23402,10 +22792,8 @@
           <t>3489680025</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:41:10</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44087.94525462963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23473,10 +22861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:40:57</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44087.94510416667</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23554,10 +22940,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:39:45</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44087.94427083333</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23629,10 +23013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:38:29</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44087.94339120371</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23696,10 +23078,8 @@
           <t>3489665793</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:38:15</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44087.94322916667</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23767,10 +23147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:36:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44087.94228009259</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23846,10 +23224,8 @@
           <t>3489655151</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:36:39</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44087.94211805556</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23917,10 +23293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:36:25</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44087.94195601852</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23988,10 +23362,8 @@
           <t>3489647489</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:35:18</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44087.94118055556</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24059,10 +23431,8 @@
           <t>3489100556</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:34:51</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44087.94086805556</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24134,10 +23504,8 @@
           <t>3489100556</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:34:32</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44087.94064814815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24209,10 +23577,8 @@
           <t>3489637581</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:32:26</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44087.93918981482</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24280,10 +23646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:30:00</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44087.9375</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24347,10 +23711,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:28:16</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44087.9362962963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24414,10 +23776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:28:15</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44087.93628472222</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24493,10 +23853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:27:29</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44087.93575231481</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24564,10 +23922,8 @@
           <t>3489611089</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:26:17</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44087.93491898148</v>
       </c>
       <c r="I331" t="n">
         <v>31</v>
@@ -24627,10 +23983,8 @@
           <t>3489451402</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:26:09</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44087.93482638889</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24694,10 +24048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:26:03</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44087.93475694444</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24765,10 +24117,8 @@
           <t>3489607378</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:25:05</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44087.93408564815</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24832,10 +24182,8 @@
           <t>3489596534</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:24:18</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44087.93354166667</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24903,10 +24251,8 @@
           <t>3489606317</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:24:17</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44087.9335300926</v>
       </c>
       <c r="I336" t="n">
         <v>17</v>
@@ -24976,10 +24322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:24:02</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44087.93335648148</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25051,10 +24395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:23:53</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44087.93325231481</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25126,10 +24468,8 @@
           <t>3489497636</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:23:06</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44087.93270833333</v>
       </c>
       <c r="I339" t="n">
         <v>7</v>
@@ -25197,10 +24537,8 @@
           <t>3489596534</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:22:53</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44087.93255787037</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25268,10 +24606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:22:00</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44087.93194444444</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25347,10 +24683,8 @@
           <t>3489111944</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:21:46</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44087.93178240741</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25418,10 +24752,8 @@
           <t>3489591233</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:20:36</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44087.93097222222</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25489,10 +24821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:18:22</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44087.9294212963</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25564,10 +24894,8 @@
           <t>3489576931</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:17:33</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44087.92885416667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25639,10 +24967,8 @@
           <t>3489571448</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:17:09</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44087.92857638889</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25706,10 +25032,8 @@
           <t>3489554677</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:14:06</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44087.92645833334</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25785,10 +25109,8 @@
           <t>3489556010</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:13:10</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44087.92581018519</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25856,10 +25178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:11:24</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44087.92458333333</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25931,10 +25251,8 @@
           <t>3489550388</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:10:52</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44087.92421296296</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26002,10 +25320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:10:15</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44087.92378472222</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26073,10 +25389,8 @@
           <t>3489538200</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:09:19</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44087.92313657407</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26144,10 +25458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:09:14</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44087.9230787037</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26211,10 +25523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:05:51</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44087.92072916667</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26278,10 +25588,8 @@
           <t>3489519780</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:05:36</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44087.92055555555</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26350,10 +25658,8 @@
           <t>3489521264</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:04:13</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44087.91959490741</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26421,10 +25727,8 @@
           <t>3489507390</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:01:21</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44087.91760416667</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26488,10 +25792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-13 22:00:09</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44087.91677083333</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26555,10 +25857,8 @@
           <t>3489497636</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:59:47</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44087.9165162037</v>
       </c>
       <c r="I359" t="n">
         <v>67</v>
@@ -26626,10 +25926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:59:46</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44087.91650462963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26705,10 +26003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:59:21</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44087.91621527778</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26780,10 +26076,8 @@
           <t>3489496250</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:58:45</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44087.91579861111</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26855,10 +26149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:57:39</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44087.91503472222</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26926,10 +26218,8 @@
           <t>3489484738</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:57:37</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44087.91501157408</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26997,10 +26287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:56:30</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44087.91423611111</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27072,10 +26360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:54:40</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44087.91296296296</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27135,10 +26421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:54:03</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44087.91253472222</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27214,10 +26498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:52:44</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44087.91162037037</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27277,10 +26559,8 @@
           <t>3489464017</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:51:18</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44087.910625</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27357,10 +26637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:50:44</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44087.91023148148</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27432,10 +26710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:50:39</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44087.91017361111</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27495,10 +26771,8 @@
           <t>3489462295</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:50:04</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44087.90976851852</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27566,10 +26840,8 @@
           <t>3489455605</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:48:18</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44087.90854166666</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27645,10 +26917,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:48:04</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44087.90837962963</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27712,10 +26982,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:48:00</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44087.90833333333</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27779,10 +27047,8 @@
           <t>3489451402</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:47:55</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44087.90827546296</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27858,10 +27124,8 @@
           <t>3489449064</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:47:39</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44087.90809027778</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27937,10 +27201,8 @@
           <t>3489443637</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:46:54</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44087.90756944445</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28016,10 +27278,8 @@
           <t>3489439553</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:46:35</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44087.90734953704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28087,10 +27347,8 @@
           <t>3489447065</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:46:07</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44087.90702546296</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28166,10 +27424,8 @@
           <t>3489100556</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:45:54</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44087.906875</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28245,10 +27501,8 @@
           <t>3489437280</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:44:55</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44087.90619212963</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28324,10 +27578,8 @@
           <t>3489437041</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:44:44</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44087.90606481482</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28399,10 +27651,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:44:33</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44087.9059375</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28470,10 +27720,8 @@
           <t>3489435762</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:43:50</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44087.90543981481</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28547,10 +27795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:43:44</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44087.90537037037</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28614,10 +27860,8 @@
           <t>3489429131</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:43:38</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44087.90530092592</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28693,10 +27937,8 @@
           <t>3489433066</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:43:08</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44087.90495370371</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28772,10 +28014,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:42:16</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44087.90435185185</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28851,10 +28091,8 @@
           <t>3489431600</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:42:04</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44087.90421296296</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28930,10 +28168,8 @@
           <t>3489422940</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:41:49</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44087.90403935185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28993,10 +28229,8 @@
           <t>3489430761</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:41:29</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44087.90380787037</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29070,10 +28304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:40:52</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44087.90337962963</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29149,10 +28381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:40:23</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44087.90304398148</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29216,10 +28446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:38:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44087.90184027778</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29287,10 +28515,8 @@
           <t>3489408330</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:38:28</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44087.90171296296</v>
       </c>
       <c r="I396" t="n">
         <v>84</v>
@@ -29363,10 +28589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:37:19</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44087.90091435185</v>
       </c>
       <c r="I397" t="n">
         <v>28</v>
@@ -29437,10 +28661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:37:13</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44087.90084490741</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29508,10 +28730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:35:25</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44087.89959490741</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29583,10 +28803,8 @@
           <t>3489208715</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:34:37</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44087.89903935185</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29662,10 +28880,8 @@
           <t>3489357713</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:34:32</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44087.89898148148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29733,10 +28949,8 @@
           <t>3489395991</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:34:12</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44087.89875</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29812,10 +29026,8 @@
           <t>3489203925</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:33:42</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44087.89840277778</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29879,10 +29091,8 @@
           <t>3489203925</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:33:23</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44087.89818287037</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29946,10 +29156,8 @@
           <t>3489384886</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:33:22</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44087.8981712963</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30013,10 +29221,8 @@
           <t>3489389446</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:33:05</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44087.89797453704</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30088,10 +29294,8 @@
           <t>3489389320</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:33:00</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44087.89791666667</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30167,10 +29371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:32:47</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44087.89776620371</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30246,10 +29448,8 @@
           <t>3489388676</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:32:32</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44087.89759259259</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30317,10 +29517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:32:25</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44087.89751157408</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30384,10 +29582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:30:38</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44087.89627314815</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30465,10 +29661,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:29:25</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44087.89542824074</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30532,10 +29726,8 @@
           <t>3489363575</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:27:37</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44087.89417824074</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30607,10 +29799,8 @@
           <t>3489360652</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:25:23</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44087.89262731482</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30678,10 +29868,8 @@
           <t>3489354382</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:25:21</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44087.89260416666</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30759,10 +29947,8 @@
           <t>3489357713</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:24:32</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44087.89203703704</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30840,10 +30026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:23:54</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44087.89159722222</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30911,10 +30095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:23:22</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44087.89122685185</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30986,10 +30168,8 @@
           <t>3489345929</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:21:48</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44087.89013888889</v>
       </c>
       <c r="I419" t="n">
         <v>19</v>
@@ -31065,10 +30245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:21:35</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44087.88998842592</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31136,10 +30314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:21:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44087.8896875</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31207,10 +30383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:20:45</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44087.88940972222</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31286,10 +30460,8 @@
           <t>3489341744</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:20:08</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44087.88898148148</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31361,10 +30533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:19:38</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44087.88863425926</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31428,10 +30598,8 @@
           <t>3489332341</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:19:08</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44087.88828703704</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31503,10 +30671,8 @@
           <t>3489294738</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:17:50</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44087.88738425926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31582,10 +30748,8 @@
           <t>3489327471</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:16:59</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44087.88679398148</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31649,10 +30813,8 @@
           <t>3489310743</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:15:48</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44087.88597222222</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31728,10 +30890,8 @@
           <t>3489294738</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:15:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44087.8855787037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31807,10 +30967,8 @@
           <t>3489261942</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:15:00</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44087.88541666666</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31878,10 +31036,8 @@
           <t>3489228815</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:14:35</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44087.88512731482</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31953,10 +31109,8 @@
           <t>3489294738</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:14:23</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44087.88498842593</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32032,10 +31186,8 @@
           <t>3489309720</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:13:59</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44087.88471064815</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32099,10 +31251,8 @@
           <t>3489261942</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:13:37</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44087.88445601852</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32170,10 +31320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:12:54</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44087.88395833333</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32237,10 +31385,8 @@
           <t>3489311357</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:12:24</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44087.88361111111</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32316,10 +31462,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:12:19</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44087.88355324074</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32389,10 +31533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:12:09</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44087.8834375</v>
       </c>
       <c r="I438" t="n">
         <v>490</v>
@@ -32460,10 +31602,8 @@
           <t>3489310743</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:11:56</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44087.88328703704</v>
       </c>
       <c r="I439" t="n">
         <v>25</v>
@@ -32539,10 +31679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:11:55</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44087.88327546296</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32606,10 +31744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:11:13</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44087.88278935185</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32681,10 +31817,8 @@
           <t>3489305757</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:10:54</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44087.88256944445</v>
       </c>
       <c r="I442" t="n">
         <v>19</v>
@@ -32752,10 +31886,8 @@
           <t>3489298710</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:10:24</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44087.88222222222</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32823,10 +31955,8 @@
           <t>3489294738</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:10:05</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44087.88200231481</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32902,10 +32032,8 @@
           <t>3489298186</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:10:00</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44087.88194444445</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32973,10 +32101,8 @@
           <t>3489297884</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:09:46</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44087.88178240741</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33040,10 +32166,8 @@
           <t>3489286337</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:09:20</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44087.88148148148</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33107,10 +32231,8 @@
           <t>3489296096</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:08:25</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44087.88084490741</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33186,10 +32308,8 @@
           <t>3489286337</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:07:49</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44087.88042824074</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33265,10 +32385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:07:24</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44087.88013888889</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33344,10 +32462,8 @@
           <t>3489291126</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:07:10</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44087.87997685185</v>
       </c>
       <c r="I451" t="n">
         <v>9</v>
@@ -33415,10 +32531,8 @@
           <t>3489286337</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:06:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44087.87961805556</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33486,10 +32600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:06:01</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44087.87917824074</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33565,10 +32677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:03:52</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44087.87768518519</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33636,10 +32746,8 @@
           <t>3489260922</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:03:44</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44087.87759259259</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33708,10 +32816,8 @@
           <t>3489261942</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:02:53</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44087.87700231482</v>
       </c>
       <c r="I456" t="n">
         <v>7</v>
@@ -33779,10 +32885,8 @@
           <t>3489268198</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:02:28</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44087.87671296296</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33846,10 +32950,8 @@
           <t>3489270844</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:02:18</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44087.87659722222</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33913,10 +33015,8 @@
           <t>3489262814</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:00:32</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44087.87537037037</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33980,10 +33080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:00:07</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44087.87508101852</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34047,10 +33145,8 @@
           <t>3489262161</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-13 21:00:02</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44087.87502314815</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34114,10 +33210,8 @@
           <t>3489261942</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:51</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44087.87489583333</v>
       </c>
       <c r="I462" t="n">
         <v>3</v>
@@ -34185,10 +33279,8 @@
           <t>3489254385</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:36</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44087.87472222222</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34266,10 +33358,8 @@
           <t>3489118605</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:34</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44087.87469907408</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34341,10 +33431,8 @@
           <t>3489261528</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:33</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44087.8746875</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34408,10 +33496,8 @@
           <t>3489261476</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:31</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44087.87466435185</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34479,10 +33565,8 @@
           <t>3489257113</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:29</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44087.87464120371</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
@@ -34546,10 +33630,8 @@
           <t>3489260922</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:59:06</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44087.874375</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34613,10 +33695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:58:39</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44087.8740625</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34685,10 +33765,8 @@
           <t>3489246657</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:55:47</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44087.87207175926</v>
       </c>
       <c r="I470" t="n">
         <v>6</v>
@@ -34756,10 +33834,8 @@
           <t>3489151901</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:53:38</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44087.8705787037</v>
       </c>
       <c r="I471" t="n">
         <v>3</v>
@@ -34835,10 +33911,8 @@
           <t>3489229266</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:53:37</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44087.87056712963</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34910,10 +33984,8 @@
           <t>3489228815</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:53:16</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44087.87032407407</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34985,10 +34057,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:48</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44087.87</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35052,10 +34122,8 @@
           <t>3489232677</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:37</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44087.86987268519</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -35127,10 +34195,8 @@
           <t>3489232657</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:36</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44087.86986111111</v>
       </c>
       <c r="I476" t="n">
         <v>10</v>
@@ -35198,10 +34264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:31</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44087.86980324074</v>
       </c>
       <c r="I477" t="n">
         <v>4</v>
@@ -35277,10 +34341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:28</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44087.86976851852</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35352,10 +34414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:28</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44087.86976851852</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35423,10 +34483,8 @@
           <t>3489227236</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:52:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44087.86950231482</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35505,10 +34563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:51:52</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44087.86935185185</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35576,10 +34632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:51:30</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44087.86909722222</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35655,10 +34709,8 @@
           <t>3489220834</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:49:17</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44087.86755787037</v>
       </c>
       <c r="I483" t="n">
         <v>5</v>
@@ -35734,10 +34786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:48:01</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44087.86667824074</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35813,10 +34863,8 @@
           <t>3489208715</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:47:39</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44087.86642361111</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35892,10 +34940,8 @@
           <t>3489207189</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:46:29</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44087.86561342593</v>
       </c>
       <c r="I486" t="n">
         <v>7</v>
@@ -35963,10 +35009,8 @@
           <t>3489203925</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:45:48</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44087.86513888889</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36030,10 +35074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:45:37</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44087.86501157407</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36097,10 +35139,8 @@
           <t>3489184458</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:45:29</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44087.86491898148</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36172,10 +35212,8 @@
           <t>3489194378</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:44:22</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44087.86414351852</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36239,10 +35277,8 @@
           <t>3489197165</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:44:22</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44087.86414351852</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36318,10 +35354,8 @@
           <t>3489201772</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:44:09</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44087.86399305556</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36397,10 +35431,8 @@
           <t>3489194019</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:44:06</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44087.86395833334</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36476,10 +35508,8 @@
           <t>3489106682</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:43:45</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44087.86371527778</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36555,10 +35585,8 @@
           <t>3489193470</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:43:39</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44087.86364583333</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36626,10 +35654,8 @@
           <t>3489200212</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:42:55</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44087.86313657407</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36701,10 +35727,8 @@
           <t>3489184458</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:42:54</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44087.863125</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36780,10 +35804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:42:43</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44087.86299768519</v>
       </c>
       <c r="I498" t="n">
         <v>2</v>
@@ -36851,10 +35873,8 @@
           <t>3489184458</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:42:15</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44087.86267361111</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36926,10 +35946,8 @@
           <t>3489184274</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:42:07</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44087.86258101852</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36993,10 +36011,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:40:32</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44087.86148148148</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37064,10 +36080,8 @@
           <t>3489179031</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:40:10</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44087.86122685186</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37131,10 +36145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:40:08</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44087.8612037037</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37198,10 +36210,8 @@
           <t>3489130605</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:39:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44087.86085648148</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37265,10 +36275,8 @@
           <t>3489180611</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:39:12</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44087.86055555556</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37332,10 +36340,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:38:56</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44087.86037037037</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37399,10 +36405,8 @@
           <t>3489151901</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:37:59</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44087.85971064815</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37478,10 +36482,8 @@
           <t>3489128275</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:37:18</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44087.85923611111</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37557,10 +36559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:36:36</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44087.85875</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37624,10 +36624,8 @@
           <t>3489166881</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:36:15</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44087.85850694445</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37703,10 +36701,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:36:04</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44087.85837962963</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37774,10 +36770,8 @@
           <t>3489165707</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:35:21</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44087.85788194444</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37841,10 +36835,8 @@
           <t>3489124204</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:34:47</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44087.85748842593</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37912,10 +36904,8 @@
           <t>3489151901</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:32:19</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44087.85577546297</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37991,10 +36981,8 @@
           <t>3489148506</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:32:00</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44087.85555555556</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38070,10 +37058,8 @@
           <t>3489106682</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:31:24</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44087.85513888889</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38137,10 +37123,8 @@
           <t>3489137140</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:31:12</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44087.855</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38200,10 +37184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:31:10</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44087.85497685185</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38281,10 +37263,8 @@
           <t>3489146115</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:30:07</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44087.85424768519</v>
       </c>
       <c r="I519" t="n">
         <v>32</v>
@@ -38348,10 +37328,8 @@
           <t>3489124204</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:29:51</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44087.8540625</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38419,10 +37397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:29:41</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44087.85394675926</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38498,10 +37474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:29:14</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44087.85363425926</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38569,10 +37543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:29:07</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44087.85355324074</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38636,10 +37608,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:28:50</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44087.85335648148</v>
       </c>
       <c r="I524" t="n">
         <v>11</v>
@@ -38707,10 +37677,8 @@
           <t>3489137140</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:28:30</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44087.853125</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38774,10 +37742,8 @@
           <t>3489130605</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:28:06</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44087.85284722222</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38849,10 +37815,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:55</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44087.85271990741</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38924,10 +37888,8 @@
           <t>3489133222</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:51</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44087.85267361111</v>
       </c>
       <c r="I528" t="n">
         <v>6</v>
@@ -38991,10 +37953,8 @@
           <t>3489136263</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:48</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44087.85263888889</v>
       </c>
       <c r="I529" t="n">
         <v>31</v>
@@ -39071,10 +38031,8 @@
           <t>3489132910</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:36</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44087.8525</v>
       </c>
       <c r="I530" t="n">
         <v>4</v>
@@ -39138,10 +38096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:31</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44087.85244212963</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39213,10 +38169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:10</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44087.85219907408</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39292,10 +38246,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:27:05</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44087.8521412037</v>
       </c>
       <c r="I533" t="n">
         <v>14</v>
@@ -39371,10 +38323,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:26:39</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44087.85184027778</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39434,10 +38384,8 @@
           <t>3489124411</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:26:20</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44087.85162037037</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39505,10 +38453,8 @@
           <t>3489124204</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:26:11</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44087.8515162037</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39576,10 +38522,8 @@
           <t>3489128275</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:25:54</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44087.85131944445</v>
       </c>
       <c r="I537" t="n">
         <v>9</v>
@@ -39647,10 +38591,8 @@
           <t>3489130605</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:25:51</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44087.85128472222</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39714,10 +38656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:25:47</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44087.85123842592</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39785,10 +38725,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:25:08</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44087.85078703704</v>
       </c>
       <c r="I540" t="n">
         <v>13</v>
@@ -39856,10 +38794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:51</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44087.85059027778</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39923,10 +38859,8 @@
           <t>3489121920</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:24</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44087.85027777778</v>
       </c>
       <c r="I542" t="n">
         <v>13</v>
@@ -39994,10 +38928,8 @@
           <t>3489118605</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:22</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44087.85025462963</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40061,10 +38993,8 @@
           <t>3489121864</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:22</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44087.85025462963</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40128,10 +39058,8 @@
           <t>3489125951</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:11</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44087.85012731481</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40207,10 +39135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:24:07</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44087.85008101852</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40278,10 +39204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:23:47</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44087.84984953704</v>
       </c>
       <c r="I547" t="n">
         <v>625</v>
@@ -40357,10 +39281,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:23:47</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44087.84984953704</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40432,10 +39354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:23:43</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44087.84980324074</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40511,10 +39431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:23:25</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44087.84959490741</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40574,10 +39492,8 @@
           <t>3489054032</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:23:13</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44087.84945601852</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40641,10 +39557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:22:49</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44087.84917824074</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40720,10 +39634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:22:38</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44087.84905092593</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40787,10 +39699,8 @@
           <t>3489069793</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:22:28</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44087.84893518518</v>
       </c>
       <c r="I554" t="n">
         <v>5</v>
@@ -40854,10 +39764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:22:25</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44087.84890046297</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40925,10 +39833,8 @@
           <t>3489108639</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:21:50</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44087.84849537037</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41004,10 +39910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:21:38</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44087.84835648148</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41075,10 +39979,8 @@
           <t>3489111944</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:21:06</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44087.84798611111</v>
       </c>
       <c r="I558" t="n">
         <v>6</v>
@@ -41154,10 +40056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:58</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44087.84789351852</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41221,10 +40121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:52</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44087.84782407407</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41296,10 +40194,8 @@
           <t>3489103829</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:47</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44087.8477662037</v>
       </c>
       <c r="I561" t="n">
         <v>3</v>
@@ -41367,10 +40263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:14</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44087.84738425926</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41448,10 +40342,8 @@
           <t>3489106682</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:14</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44087.84738425926</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -41515,10 +40407,8 @@
           <t>3489069793</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:20:02</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44087.84724537037</v>
       </c>
       <c r="I564" t="n">
         <v>2</v>
@@ -41586,10 +40476,8 @@
           <t>3489110339</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:51</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44087.84711805556</v>
       </c>
       <c r="I565" t="n">
         <v>3</v>
@@ -41653,10 +40541,8 @@
           <t>3489099998</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:34</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44087.8469212963</v>
       </c>
       <c r="I566" t="n">
         <v>47</v>
@@ -41724,10 +40610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:33</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44087.84690972222</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41791,10 +40675,8 @@
           <t>3489099733</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:21</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44087.84677083333</v>
       </c>
       <c r="I568" t="n">
         <v>6</v>
@@ -41858,10 +40740,8 @@
           <t>3489099489</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:10</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44087.84664351852</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41929,10 +40809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:19:01</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44087.84653935185</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42008,10 +40886,8 @@
           <t>3489094519</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:18:32</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44087.8462037037</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42079,10 +40955,8 @@
           <t>3489100696</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:18:22</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44087.84608796296</v>
       </c>
       <c r="I572" t="n">
         <v>3</v>
@@ -42150,10 +41024,8 @@
           <t>3489100556</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:18:16</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44087.84601851852</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42225,10 +41097,8 @@
           <t>3489075672</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:18:15</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44087.84600694444</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42296,10 +41166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:18:01</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44087.84584490741</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42371,10 +41239,8 @@
           <t>3489100064</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:17:55</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44087.84577546296</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42452,10 +41318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:17:38</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44087.8455787037</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42527,10 +41391,8 @@
           <t>3489054032</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:17:26</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44087.84543981482</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42594,10 +41456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:17:17</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44087.84533564815</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42673,10 +41533,8 @@
           <t>3489046781</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:17:08</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44087.84523148148</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42744,10 +41602,8 @@
           <t>3489092157</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:16:39</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44087.84489583333</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42811,10 +41667,8 @@
           <t>3489087876</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:16:12</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44087.84458333333</v>
       </c>
       <c r="I582" t="n">
         <v>4</v>
@@ -42878,10 +41732,8 @@
           <t>3489087785</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:16:09</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44087.84454861111</v>
       </c>
       <c r="I583" t="n">
         <v>12</v>
@@ -42950,10 +41802,8 @@
           <t>3489087374</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:15:50</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44087.8443287037</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43017,10 +41867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:15:47</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44087.84429398148</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43096,10 +41944,8 @@
           <t>3489086291</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:15:01</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44087.84376157408</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43171,10 +42017,8 @@
           <t>3489074977</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:59</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44087.84304398148</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43251,10 +42095,8 @@
           <t>3489056220</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:59</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44087.84304398148</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43322,10 +42164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:54</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44087.84298611111</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43394,10 +42234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:38</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44087.84280092592</v>
       </c>
       <c r="I590" t="n">
         <v>20</v>
@@ -43473,10 +42311,8 @@
           <t>3489082368</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:32</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44087.84273148148</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43548,10 +42384,8 @@
           <t>3489073856</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:13:07</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44087.84244212963</v>
       </c>
       <c r="I592" t="n">
         <v>16</v>
@@ -43627,10 +42461,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:12:45</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44087.8421875</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43694,10 +42526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:12:44</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44087.84217592593</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43761,10 +42591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:12:25</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44087.84195601852</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43840,10 +42668,8 @@
           <t>3489076728</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:12:21</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44087.84190972222</v>
       </c>
       <c r="I596" t="n">
         <v>4</v>
@@ -43907,10 +42733,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:38</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44087.84141203704</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43982,10 +42806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:34</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44087.84136574074</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44049,10 +42871,8 @@
           <t>3489069793</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:32</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44087.84134259259</v>
       </c>
       <c r="I599" t="n">
         <v>10</v>
@@ -44116,10 +42936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:32</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44087.84134259259</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44195,10 +43013,8 @@
           <t>3489075672</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:31</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44087.84133101852</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44270,10 +43086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:11:18</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44087.84118055556</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44337,10 +43151,8 @@
           <t>3489070803</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:45</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44087.84079861111</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44416,10 +43228,8 @@
           <t>3489056220</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:39</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44087.84072916667</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44495,10 +43305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:27</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44087.84059027778</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -44574,10 +43382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:27</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44087.84059027778</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44639,10 +43445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:20</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44087.84050925926</v>
       </c>
       <c r="I607" t="n">
         <v>79</v>
@@ -44718,10 +43522,8 @@
           <t>3489070076</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:10:10</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44087.84039351852</v>
       </c>
       <c r="I608" t="n">
         <v>34</v>
@@ -44797,10 +43599,8 @@
           <t>3489056220</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:09:55</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44087.8402199074</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44868,10 +43668,8 @@
           <t>3489067578</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:09:45</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44087.84010416667</v>
       </c>
       <c r="I610" t="n">
         <v>18</v>
@@ -44931,10 +43729,8 @@
           <t>3489067553</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:09:44</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44087.8400925926</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45002,10 +43798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:09:37</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44087.84001157407</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45077,10 +43871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:08:39</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44087.83934027778</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45158,10 +43950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:08:25</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44087.83917824074</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45233,10 +44023,8 @@
           <t>3489061564</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:08:13</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44087.83903935185</v>
       </c>
       <c r="I615" t="n">
         <v>60</v>
@@ -45308,10 +44096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:57</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44087.83885416666</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45387,10 +44173,8 @@
           <t>3489065209</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:52</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44087.8387962963</v>
       </c>
       <c r="I617" t="n">
         <v>7</v>
@@ -45466,10 +44250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:51</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44087.83878472223</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45537,10 +44319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:33</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44087.83857638889</v>
       </c>
       <c r="I619" t="n">
         <v>20</v>
@@ -45612,10 +44392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:29</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44087.83853009259</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45683,10 +44461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:25</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44087.83848379629</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -45750,10 +44526,8 @@
           <t>3489056220</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:18</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44087.83840277778</v>
       </c>
       <c r="I622" t="n">
         <v>7</v>
@@ -45821,10 +44595,8 @@
           <t>3489060108</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:07:06</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44087.83826388889</v>
       </c>
       <c r="I623" t="n">
         <v>27</v>
@@ -45884,10 +44656,8 @@
           <t>3489054032</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:55</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44087.83813657407</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45951,10 +44721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:45</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44087.83802083333</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46022,10 +44790,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:36</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44087.83791666666</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46101,10 +44867,8 @@
           <t>3489053505</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:32</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44087.83787037037</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46180,10 +44944,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:32</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44087.83787037037</v>
       </c>
       <c r="I628" t="n">
         <v>2</v>
@@ -46247,10 +45009,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:29</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44087.83783564815</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46322,10 +45082,8 @@
           <t>3489049234</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:23</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44087.8377662037</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46397,10 +45155,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:21</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44087.83774305556</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46464,10 +45220,8 @@
           <t>3489044763</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:14</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44087.83766203704</v>
       </c>
       <c r="I632" t="n">
         <v>50</v>
@@ -46539,10 +45293,8 @@
           <t>3489044697</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:11</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44087.83762731482</v>
       </c>
       <c r="I633" t="n">
         <v>6</v>
@@ -46614,10 +45366,8 @@
           <t>3489044623</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:09</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44087.83760416666</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46693,10 +45443,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:04</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44087.83754629629</v>
       </c>
       <c r="I635" t="n">
         <v>3</v>
@@ -46760,10 +45508,8 @@
           <t>3489048787</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:06:03</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44087.83753472222</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46827,10 +45573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:58</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44087.83747685186</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46894,10 +45638,8 @@
           <t>3489044377</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:57</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44087.83746527778</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46973,10 +45715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:51</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44087.83739583333</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47048,10 +45788,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:51</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44087.83739583333</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47123,10 +45861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:40</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44087.83726851852</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -47190,10 +45926,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:22</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44087.83706018519</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47269,10 +46003,8 @@
           <t>3489047815</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:19</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44087.83702546296</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47336,10 +46068,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:16</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44087.83699074074</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47411,10 +46141,8 @@
           <t>3489051810</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:13</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44087.83695601852</v>
       </c>
       <c r="I645" t="n">
         <v>1</v>
@@ -47482,10 +46210,8 @@
           <t>3489051711</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:09</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44087.83690972222</v>
       </c>
       <c r="I646" t="n">
         <v>15</v>
@@ -47549,10 +46275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:05:00</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44087.83680555555</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47620,10 +46344,8 @@
           <t>3489037939</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:44</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44087.83662037037</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47691,10 +46413,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:42</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44087.83659722222</v>
       </c>
       <c r="I649" t="n">
         <v>2</v>
@@ -47766,10 +46486,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:40</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44087.83657407408</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -47845,10 +46563,8 @@
           <t>3489046781</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:30</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44087.83645833333</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47908,10 +46624,8 @@
           <t>3489042367</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:26</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44087.83641203704</v>
       </c>
       <c r="I652" t="n">
         <v>3</v>
@@ -47979,10 +46693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:21</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44087.83635416667</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -48050,10 +46762,8 @@
           <t>3489042169</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:18</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44087.83631944445</v>
       </c>
       <c r="I654" t="n">
         <v>6</v>
@@ -48117,10 +46827,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:14</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44087.83627314815</v>
       </c>
       <c r="I655" t="n">
         <v>4</v>
@@ -48184,10 +46892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:04:02</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44087.83613425926</v>
       </c>
       <c r="I656" t="n">
         <v>1</v>
@@ -48251,10 +46957,8 @@
           <t>3489041633</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:55</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44087.83605324074</v>
       </c>
       <c r="I657" t="n">
         <v>37</v>
@@ -48330,10 +47034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:53</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44087.83603009259</v>
       </c>
       <c r="I658" t="n">
         <v>14</v>
@@ -48401,10 +47103,8 @@
           <t>3489041515</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:49</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44087.8359837963</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -48468,10 +47168,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:43</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44087.83591435185</v>
       </c>
       <c r="I660" t="n">
         <v>12</v>
@@ -48543,10 +47241,8 @@
           <t>3489039760</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:38</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44087.83585648148</v>
       </c>
       <c r="I661" t="n">
         <v>4</v>
@@ -48610,10 +47306,8 @@
           <t>3489045415</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:26</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44087.83571759259</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48689,10 +47383,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:03:09</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44087.83552083333</v>
       </c>
       <c r="I663" t="n">
         <v>450</v>
@@ -48764,10 +47456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:46</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44087.83525462963</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -48839,10 +47529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:46</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44087.83525462963</v>
       </c>
       <c r="I665" t="n">
         <v>259</v>
@@ -48910,10 +47598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:38</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44087.83516203704</v>
       </c>
       <c r="I666" t="n">
         <v>1</v>
@@ -48981,10 +47667,8 @@
           <t>3489038345</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:36</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44087.83513888889</v>
       </c>
       <c r="I667" t="n">
         <v>4</v>
@@ -49048,10 +47732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:32</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44087.83509259259</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -49115,10 +47797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:31</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44087.83508101852</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
@@ -49182,10 +47862,8 @@
           <t>3489038215</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:31</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44087.83508101852</v>
       </c>
       <c r="I670" t="n">
         <v>18</v>
@@ -49261,10 +47939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:24</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44087.835</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49328,10 +48004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:19</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44087.83494212963</v>
       </c>
       <c r="I672" t="n">
         <v>302</v>
@@ -49407,10 +48081,8 @@
           <t>3489033921</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:18</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44087.83493055555</v>
       </c>
       <c r="I673" t="n">
         <v>3</v>
@@ -49474,10 +48146,8 @@
           <t>3489037939</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:18</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44087.83493055555</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49541,10 +48211,8 @@
           <t>3489037790</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:11</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44087.83484953704</v>
       </c>
       <c r="I675" t="n">
         <v>82</v>
@@ -49612,10 +48280,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:10</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44087.83483796296</v>
       </c>
       <c r="I676" t="n">
         <v>147</v>
@@ -49679,10 +48345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:10</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44087.83483796296</v>
       </c>
       <c r="I677" t="n">
         <v>1</v>
@@ -49750,10 +48414,8 @@
           <t>3489037744</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:02:10</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44087.83483796296</v>
       </c>
       <c r="I678" t="n">
         <v>6</v>
@@ -49829,10 +48491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:56</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44087.83467592593</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -49908,10 +48568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:56</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44087.83467592593</v>
       </c>
       <c r="I680" t="n">
         <v>16</v>
@@ -49979,10 +48637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:54</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44087.83465277778</v>
       </c>
       <c r="I681" t="n">
         <v>1</v>
@@ -50058,10 +48714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:50</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44087.83460648148</v>
       </c>
       <c r="I682" t="n">
         <v>498</v>
@@ -50137,10 +48791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:48</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44087.83458333334</v>
       </c>
       <c r="I683" t="n">
         <v>1</v>
@@ -50208,10 +48860,8 @@
           <t>3489031796</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:44</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44087.83453703704</v>
       </c>
       <c r="I684" t="n">
         <v>2</v>
@@ -50284,10 +48934,8 @@
           <t>3489031796</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:37</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44087.83445601852</v>
       </c>
       <c r="I685" t="n">
         <v>1</v>
@@ -50363,10 +49011,8 @@
           <t>3489028418</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:32</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44087.83439814814</v>
       </c>
       <c r="I686" t="n">
         <v>48</v>
@@ -50430,10 +49076,8 @@
           <t>3489028336</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:28</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44087.83435185185</v>
       </c>
       <c r="I687" t="n">
         <v>5</v>
@@ -50505,10 +49149,8 @@
           <t>3489028286</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:26</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44087.83432870371</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50580,10 +49222,8 @@
           <t>3489032709</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:22</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44087.83428240741</v>
       </c>
       <c r="I689" t="n">
         <v>12</v>
@@ -50659,10 +49299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:21</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44087.83427083334</v>
       </c>
       <c r="I690" t="n">
         <v>50</v>
@@ -50730,10 +49368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:07</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44087.8341087963</v>
       </c>
       <c r="I691" t="n">
         <v>1</v>
@@ -50797,10 +49433,8 @@
           <t>3489027863</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:07</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44087.8341087963</v>
       </c>
       <c r="I692" t="n">
         <v>60</v>
@@ -50868,10 +49502,8 @@
           <t>3489032351</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:07</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44087.8341087963</v>
       </c>
       <c r="I693" t="n">
         <v>35</v>
@@ -50935,10 +49567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:01:00</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44087.83402777778</v>
       </c>
       <c r="I694" t="n">
         <v>2</v>
@@ -51010,10 +49640,8 @@
           <t>3489032089</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:55</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44087.83396990741</v>
       </c>
       <c r="I695" t="n">
         <v>36</v>
@@ -51090,10 +49718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:50</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44087.83391203704</v>
       </c>
       <c r="I696" t="n">
         <v>1</v>
@@ -51170,10 +49796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:46</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44087.83386574074</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -51241,10 +49865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:43</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44087.83383101852</v>
       </c>
       <c r="I698" t="n">
         <v>16</v>
@@ -51320,10 +49942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:42</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44087.83381944444</v>
       </c>
       <c r="I699" t="n">
         <v>1</v>
@@ -51399,10 +50019,8 @@
           <t>3489031796</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:41</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44087.83380787037</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51462,10 +50080,8 @@
           <t>3489031789</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:40</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44087.8337962963</v>
       </c>
       <c r="I701" t="n">
         <v>100</v>
@@ -51541,10 +50157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:31</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44087.83369212963</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
@@ -51620,10 +50234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:24</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44087.83361111111</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51691,10 +50303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:22</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44087.83358796296</v>
       </c>
       <c r="I704" t="n">
         <v>1</v>
@@ -51762,10 +50372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:13</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44087.8334837963</v>
       </c>
       <c r="I705" t="n">
         <v>127</v>
@@ -51825,10 +50433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:13</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44087.8334837963</v>
       </c>
       <c r="I706" t="n">
         <v>1</v>
@@ -51892,10 +50498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:07</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44087.83341435185</v>
       </c>
       <c r="I707" t="n">
         <v>1</v>
@@ -51967,10 +50571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-09-13 20:00:01</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44087.83334490741</v>
       </c>
       <c r="I708" t="n">
         <v>1077</v>
@@ -52042,10 +50644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:56</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44087.83328703704</v>
       </c>
       <c r="I709" t="n">
         <v>2</v>
@@ -52113,10 +50713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:51</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44087.83322916667</v>
       </c>
       <c r="I710" t="n">
         <v>148</v>
@@ -52192,10 +50790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:51</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44087.83322916667</v>
       </c>
       <c r="I711" t="n">
         <v>167</v>
@@ -52267,10 +50863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:47</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44087.83318287037</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52342,10 +50936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:39</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44087.83309027777</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52413,10 +51005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:37</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44087.83306712963</v>
       </c>
       <c r="I714" t="n">
         <v>3</v>
@@ -52492,10 +51082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:37</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44087.83306712963</v>
       </c>
       <c r="I715" t="n">
         <v>1</v>
@@ -52563,10 +51151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:31</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44087.83299768518</v>
       </c>
       <c r="I716" t="n">
         <v>1</v>
@@ -52638,10 +51224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:29</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44087.83297453704</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52710,10 +51294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-09-13 19:59:27</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44087.83295138889</v>
       </c>
       <c r="I718" t="n">
         <v>1</v>
